--- a/results_step4_zonal.xlsx
+++ b/results_step4_zonal.xlsx
@@ -462,266 +462,266 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="B2">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="C2">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B3">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C3">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B4">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C4">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B5">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C5">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B6">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C6">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.0</v>
+        <v>6.95</v>
       </c>
       <c r="B7">
-        <v>-0.0</v>
+        <v>6.95</v>
       </c>
       <c r="C7">
-        <v>-0.0</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.0</v>
+        <v>7.76</v>
       </c>
       <c r="B8">
-        <v>-0.0</v>
+        <v>7.76</v>
       </c>
       <c r="C8">
-        <v>-0.0</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B9">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C9">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="B10">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="C10">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.0</v>
+        <v>10.17</v>
       </c>
       <c r="B11">
-        <v>-0.0</v>
+        <v>10.17</v>
       </c>
       <c r="C11">
-        <v>-0.0</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.0</v>
+        <v>6.02</v>
       </c>
       <c r="B12">
-        <v>-0.0</v>
+        <v>6.02</v>
       </c>
       <c r="C12">
-        <v>-0.0</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B13">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C13">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="B14">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="C14">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="B15">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="C15">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B16">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C16">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B17">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C17">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B18">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C18">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.0</v>
+        <v>6.02</v>
       </c>
       <c r="B19">
-        <v>-0.0</v>
+        <v>6.02</v>
       </c>
       <c r="C19">
-        <v>-0.0</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="B20">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="C20">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="B21">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="C21">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="B22">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
       <c r="C22">
-        <v>-0.0</v>
+        <v>10.169999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="B23">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
       <c r="C23">
-        <v>-0.0</v>
+        <v>10.169999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="B24">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
       <c r="C24">
-        <v>-0.0</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.0</v>
+        <v>9.91</v>
       </c>
       <c r="B25">
-        <v>-0.0</v>
+        <v>9.91</v>
       </c>
       <c r="C25">
-        <v>-0.0</v>
+        <v>9.91</v>
       </c>
     </row>
   </sheetData>
@@ -753,29 +753,29 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>1500.0</v>
+        <v>-352.81596474</v>
       </c>
       <c r="C2">
-        <v>-670.6850549999999</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1500.0</v>
+        <v>352.81596474</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>1061.368755</v>
+        <v>-609.3162999999998</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>670.6850549999999</v>
+        <v>-1000.0</v>
       </c>
       <c r="B4">
-        <v>-1061.368755</v>
+        <v>609.3162999999998</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -855,13 +855,13 @@
         <v>0.0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K2">
         <v>0.0</v>
@@ -893,13 +893,13 @@
         <v>0.0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K3">
         <v>0.0</v>
@@ -931,13 +931,13 @@
         <v>0.0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K4">
         <v>0.0</v>
@@ -969,13 +969,13 @@
         <v>0.0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K5">
         <v>0.0</v>
@@ -1007,13 +1007,13 @@
         <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K6">
         <v>0.0</v>
@@ -1045,13 +1045,13 @@
         <v>0.0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K7">
         <v>0.0</v>
@@ -1083,13 +1083,13 @@
         <v>0.0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I8">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J8">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K8">
         <v>0.0</v>
@@ -1121,13 +1121,13 @@
         <v>0.0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I9">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J9">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K9">
         <v>0.0</v>
@@ -1159,13 +1159,13 @@
         <v>0.0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I10">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J10">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K10">
         <v>0.0</v>
@@ -1197,13 +1197,13 @@
         <v>0.0</v>
       </c>
       <c r="H11">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I11">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J11">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K11">
         <v>0.0</v>
@@ -1235,13 +1235,13 @@
         <v>0.0</v>
       </c>
       <c r="H12">
-        <v>0.0</v>
+        <v>294.5751309300001</v>
       </c>
       <c r="I12">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J12">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K12">
         <v>0.0</v>
@@ -1273,13 +1273,13 @@
         <v>0.0</v>
       </c>
       <c r="H13">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I13">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J13">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K13">
         <v>0.0</v>
@@ -1305,19 +1305,19 @@
         <v>0.0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>113.49286595000012</v>
       </c>
       <c r="G14">
         <v>0.0</v>
       </c>
       <c r="H14">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I14">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J14">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K14">
         <v>0.0</v>
@@ -1343,19 +1343,19 @@
         <v>0.0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>4.629943099999991</v>
       </c>
       <c r="G15">
         <v>0.0</v>
       </c>
       <c r="H15">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I15">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J15">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K15">
         <v>0.0</v>
@@ -1387,13 +1387,13 @@
         <v>0.0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I16">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J16">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K16">
         <v>0.0</v>
@@ -1425,13 +1425,13 @@
         <v>0.0</v>
       </c>
       <c r="H17">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I17">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J17">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K17">
         <v>0.0</v>
@@ -1463,13 +1463,13 @@
         <v>0.0</v>
       </c>
       <c r="H18">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I18">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J18">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K18">
         <v>0.0</v>
@@ -1501,13 +1501,13 @@
         <v>0.0</v>
       </c>
       <c r="H19">
-        <v>0.0</v>
+        <v>361.15426198</v>
       </c>
       <c r="I19">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J19">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K19">
         <v>0.0</v>
@@ -1533,19 +1533,19 @@
         <v>0.0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>30.371187680000276</v>
       </c>
       <c r="G20">
         <v>0.0</v>
       </c>
       <c r="H20">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I20">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J20">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K20">
         <v>0.0</v>
@@ -1577,13 +1577,13 @@
         <v>0.0</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I21">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J21">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K21">
         <v>0.0</v>
@@ -1615,13 +1615,13 @@
         <v>0.0</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I22">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J22">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K22">
         <v>0.0</v>
@@ -1653,13 +1653,13 @@
         <v>0.0</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I23">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J23">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K23">
         <v>0.0</v>
@@ -1691,16 +1691,16 @@
         <v>0.0</v>
       </c>
       <c r="H24">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I24">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J24">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K24">
-        <v>0.0</v>
+        <v>155.95468810000034</v>
       </c>
       <c r="L24">
         <v>0.0</v>
@@ -1729,13 +1729,13 @@
         <v>0.0</v>
       </c>
       <c r="H25">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I25">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J25">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="K25">
         <v>0.0</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>67.48173</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
-        <v>60.37839</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
         <v>111.877605</v>
@@ -1848,13 +1848,13 @@
         <v>120.75678</v>
       </c>
       <c r="M2">
-        <v>197.117685</v>
+        <v>0.0</v>
       </c>
       <c r="N2">
         <v>62.154225</v>
       </c>
       <c r="O2">
-        <v>207.772695</v>
+        <v>0.0</v>
       </c>
       <c r="P2">
         <v>113.65344</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>67.48173</v>
+        <v>0.0</v>
       </c>
       <c r="B3">
         <v>60.37839</v>
@@ -1886,13 +1886,13 @@
         <v>78.13674</v>
       </c>
       <c r="H3">
-        <v>106.5501</v>
+        <v>0.0</v>
       </c>
       <c r="I3">
-        <v>108.325935</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="K3">
         <v>165.152655</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>67.48173</v>
+        <v>0.0</v>
       </c>
       <c r="B4">
         <v>60.37839</v>
@@ -1942,10 +1942,10 @@
         <v>106.5501</v>
       </c>
       <c r="I4">
-        <v>108.325935</v>
+        <v>0.0</v>
       </c>
       <c r="J4">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="K4">
         <v>165.152655</v>
@@ -1960,7 +1960,7 @@
         <v>62.154225</v>
       </c>
       <c r="O4">
-        <v>207.772695</v>
+        <v>0.0</v>
       </c>
       <c r="P4">
         <v>113.65344</v>
@@ -2013,10 +2013,10 @@
         <v>62.154225</v>
       </c>
       <c r="O5">
-        <v>207.772695</v>
+        <v>0.0</v>
       </c>
       <c r="P5">
-        <v>113.65344</v>
+        <v>0.0</v>
       </c>
       <c r="Q5">
         <v>79.912575</v>
@@ -2030,13 +2030,13 @@
         <v>60.37839</v>
       </c>
       <c r="C6">
-        <v>111.877605</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
         <v>46.17171</v>
       </c>
       <c r="E6">
-        <v>44.395875</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
         <v>85.24008</v>
@@ -2045,7 +2045,7 @@
         <v>78.13674</v>
       </c>
       <c r="H6">
-        <v>106.5501</v>
+        <v>0.0</v>
       </c>
       <c r="I6">
         <v>108.325935</v>
@@ -2054,7 +2054,7 @@
         <v>120.75678</v>
       </c>
       <c r="K6">
-        <v>165.152655</v>
+        <v>0.0</v>
       </c>
       <c r="L6">
         <v>120.75678</v>
@@ -2080,7 +2080,7 @@
         <v>67.48173</v>
       </c>
       <c r="B7">
-        <v>60.37839</v>
+        <v>0.0</v>
       </c>
       <c r="C7">
         <v>111.877605</v>
@@ -2104,7 +2104,7 @@
         <v>108.325935</v>
       </c>
       <c r="J7">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="K7">
         <v>165.152655</v>
@@ -2119,10 +2119,10 @@
         <v>62.154225</v>
       </c>
       <c r="O7">
-        <v>207.772695</v>
+        <v>0.0</v>
       </c>
       <c r="P7">
-        <v>113.65344</v>
+        <v>7.929825550000032</v>
       </c>
       <c r="Q7">
         <v>79.912575</v>
@@ -2136,7 +2136,7 @@
         <v>60.37839</v>
       </c>
       <c r="C8">
-        <v>111.877605</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
         <v>46.17171</v>
@@ -2154,13 +2154,13 @@
         <v>106.5501</v>
       </c>
       <c r="I8">
-        <v>108.325935</v>
+        <v>0.0</v>
       </c>
       <c r="J8">
         <v>120.75678</v>
       </c>
       <c r="K8">
-        <v>165.152655</v>
+        <v>6.28141028999994</v>
       </c>
       <c r="L8">
         <v>120.75678</v>
@@ -2169,7 +2169,7 @@
         <v>197.117685</v>
       </c>
       <c r="N8">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O8">
         <v>207.772695</v>
@@ -2186,7 +2186,7 @@
         <v>67.48173</v>
       </c>
       <c r="B9">
-        <v>60.37839</v>
+        <v>0.0</v>
       </c>
       <c r="C9">
         <v>111.877605</v>
@@ -2204,7 +2204,7 @@
         <v>78.13674</v>
       </c>
       <c r="H9">
-        <v>106.5501</v>
+        <v>0.0</v>
       </c>
       <c r="I9">
         <v>108.325935</v>
@@ -2239,10 +2239,10 @@
         <v>67.48173</v>
       </c>
       <c r="B10">
-        <v>60.37839</v>
+        <v>0.0</v>
       </c>
       <c r="C10">
-        <v>111.877605</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
         <v>46.17171</v>
@@ -2260,7 +2260,7 @@
         <v>106.5501</v>
       </c>
       <c r="I10">
-        <v>108.325935</v>
+        <v>0.0</v>
       </c>
       <c r="J10">
         <v>120.75678</v>
@@ -2281,7 +2281,7 @@
         <v>207.772695</v>
       </c>
       <c r="P10">
-        <v>113.65344</v>
+        <v>0.0</v>
       </c>
       <c r="Q10">
         <v>79.912575</v>
@@ -2295,7 +2295,7 @@
         <v>60.37839</v>
       </c>
       <c r="C11">
-        <v>111.877605</v>
+        <v>14.908957626664233</v>
       </c>
       <c r="D11">
         <v>46.17171</v>
@@ -2307,10 +2307,10 @@
         <v>85.24008</v>
       </c>
       <c r="G11">
-        <v>78.13674</v>
+        <v>0.0</v>
       </c>
       <c r="H11">
-        <v>106.5501</v>
+        <v>0.0</v>
       </c>
       <c r="I11">
         <v>108.325935</v>
@@ -2366,19 +2366,19 @@
         <v>106.5501</v>
       </c>
       <c r="I12">
-        <v>108.325935</v>
+        <v>0.0</v>
       </c>
       <c r="J12">
         <v>120.75678</v>
       </c>
       <c r="K12">
-        <v>165.152655</v>
+        <v>0.0</v>
       </c>
       <c r="L12">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="M12">
-        <v>197.117685</v>
+        <v>0.0</v>
       </c>
       <c r="N12">
         <v>62.154225</v>
@@ -2404,16 +2404,16 @@
         <v>111.877605</v>
       </c>
       <c r="D13">
-        <v>46.17171</v>
+        <v>0.0</v>
       </c>
       <c r="E13">
-        <v>44.395875</v>
+        <v>0.0</v>
       </c>
       <c r="F13">
         <v>85.24008</v>
       </c>
       <c r="G13">
-        <v>78.13674</v>
+        <v>0.0</v>
       </c>
       <c r="H13">
         <v>106.5501</v>
@@ -2431,7 +2431,7 @@
         <v>120.75678</v>
       </c>
       <c r="M13">
-        <v>197.117685</v>
+        <v>0.0</v>
       </c>
       <c r="N13">
         <v>62.154225</v>
@@ -2490,7 +2490,7 @@
         <v>62.154225</v>
       </c>
       <c r="O14">
-        <v>207.772695</v>
+        <v>0.0</v>
       </c>
       <c r="P14">
         <v>113.65344</v>
@@ -2504,7 +2504,7 @@
         <v>67.48173</v>
       </c>
       <c r="B15">
-        <v>60.37839</v>
+        <v>0.0</v>
       </c>
       <c r="C15">
         <v>111.877605</v>
@@ -2531,7 +2531,7 @@
         <v>120.75678</v>
       </c>
       <c r="K15">
-        <v>165.152655</v>
+        <v>0.0</v>
       </c>
       <c r="L15">
         <v>120.75678</v>
@@ -2560,10 +2560,10 @@
         <v>60.37839</v>
       </c>
       <c r="C16">
-        <v>111.877605</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
-        <v>46.17171</v>
+        <v>0.0</v>
       </c>
       <c r="E16">
         <v>44.395875</v>
@@ -2572,7 +2572,7 @@
         <v>85.24008</v>
       </c>
       <c r="G16">
-        <v>78.13674</v>
+        <v>0.0</v>
       </c>
       <c r="H16">
         <v>106.5501</v>
@@ -2584,7 +2584,7 @@
         <v>120.75678</v>
       </c>
       <c r="K16">
-        <v>165.152655</v>
+        <v>0.0</v>
       </c>
       <c r="L16">
         <v>120.75678</v>
@@ -2613,7 +2613,7 @@
         <v>60.37839</v>
       </c>
       <c r="C17">
-        <v>111.877605</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
         <v>46.17171</v>
@@ -2631,7 +2631,7 @@
         <v>106.5501</v>
       </c>
       <c r="I17">
-        <v>108.325935</v>
+        <v>0.0</v>
       </c>
       <c r="J17">
         <v>120.75678</v>
@@ -2646,10 +2646,10 @@
         <v>197.117685</v>
       </c>
       <c r="N17">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O17">
-        <v>207.772695</v>
+        <v>0.0</v>
       </c>
       <c r="P17">
         <v>113.65344</v>
@@ -2666,7 +2666,7 @@
         <v>60.37839</v>
       </c>
       <c r="C18">
-        <v>111.877605</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
         <v>46.17171</v>
@@ -2690,7 +2690,7 @@
         <v>120.75678</v>
       </c>
       <c r="K18">
-        <v>165.152655</v>
+        <v>0.0</v>
       </c>
       <c r="L18">
         <v>120.75678</v>
@@ -2699,7 +2699,7 @@
         <v>197.117685</v>
       </c>
       <c r="N18">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O18">
         <v>207.772695</v>
@@ -2716,7 +2716,7 @@
         <v>67.48173</v>
       </c>
       <c r="B19">
-        <v>60.37839</v>
+        <v>0.0</v>
       </c>
       <c r="C19">
         <v>111.877605</v>
@@ -2740,19 +2740,19 @@
         <v>108.325935</v>
       </c>
       <c r="J19">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="K19">
-        <v>165.152655</v>
+        <v>0.0</v>
       </c>
       <c r="L19">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="M19">
         <v>197.117685</v>
       </c>
       <c r="N19">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O19">
         <v>207.772695</v>
@@ -2769,7 +2769,7 @@
         <v>67.48173</v>
       </c>
       <c r="B20">
-        <v>60.37839</v>
+        <v>0.0</v>
       </c>
       <c r="C20">
         <v>111.877605</v>
@@ -2805,7 +2805,7 @@
         <v>197.117685</v>
       </c>
       <c r="N20">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O20">
         <v>207.772695</v>
@@ -2846,7 +2846,7 @@
         <v>108.325935</v>
       </c>
       <c r="J21">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="K21">
         <v>165.152655</v>
@@ -2858,7 +2858,7 @@
         <v>197.117685</v>
       </c>
       <c r="N21">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O21">
         <v>207.772695</v>
@@ -2884,7 +2884,7 @@
         <v>46.17171</v>
       </c>
       <c r="E22">
-        <v>44.395875</v>
+        <v>0.0</v>
       </c>
       <c r="F22">
         <v>85.24008</v>
@@ -2899,7 +2899,7 @@
         <v>108.325935</v>
       </c>
       <c r="J22">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="K22">
         <v>165.152655</v>
@@ -2943,10 +2943,10 @@
         <v>85.24008</v>
       </c>
       <c r="G23">
-        <v>78.13674</v>
+        <v>0.0</v>
       </c>
       <c r="H23">
-        <v>106.5501</v>
+        <v>0.0</v>
       </c>
       <c r="I23">
         <v>108.325935</v>
@@ -2996,7 +2996,7 @@
         <v>85.24008</v>
       </c>
       <c r="G24">
-        <v>78.13674</v>
+        <v>0.0</v>
       </c>
       <c r="H24">
         <v>106.5501</v>
@@ -3052,31 +3052,31 @@
         <v>78.13674</v>
       </c>
       <c r="H25">
-        <v>106.5501</v>
+        <v>0.0</v>
       </c>
       <c r="I25">
         <v>108.325935</v>
       </c>
       <c r="J25">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="K25">
         <v>165.152655</v>
       </c>
       <c r="L25">
-        <v>120.75678</v>
+        <v>0.0</v>
       </c>
       <c r="M25">
         <v>197.117685</v>
       </c>
       <c r="N25">
-        <v>62.154225</v>
+        <v>0.0</v>
       </c>
       <c r="O25">
         <v>207.772695</v>
       </c>
       <c r="P25">
-        <v>113.65344</v>
+        <v>49.27951006999979</v>
       </c>
       <c r="Q25">
         <v>79.912575</v>
@@ -3120,479 +3120,479 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>54.270789740000225</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>4.64001468</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>9.53708776</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>24.00050955</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>10.63609827</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>0.0</v>
+        <v>78.67318960000011</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>134.9983743</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>5.4583715</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>10.793716159999999</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>25.904045749999998</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>16.89275769</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.0</v>
+        <v>73.29334330999995</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>25.438532400000014</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>7.144006149999999</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>13.47802006</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>32.06911965</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>20.07483843</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0.0</v>
+        <v>74.31392915000018</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>199.8729033</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>7.97851152</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>13.36636188</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>35.74215845</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>23.135000700000003</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.0</v>
+        <v>44.50762872666738</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>118.54258648333266</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>8.0471868</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>16.53032632</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>36.007600000000004</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>24.223436669999998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.0</v>
+        <v>51.05850269999999</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>46.668736499999994</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>7.851144100000001</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>16.18275656</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>36.15903785</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>23.28334284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.0</v>
+        <v>69.77485710000002</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>80.5045911</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>7.07830387</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>15.99270036</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>38.2149237</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>23.04061416</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>0.0</v>
+        <v>176.16604256000028</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>243.58858650000002</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>7.7646966200000005</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>17.080470679999998</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>39.66071905</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>24.645994589999997</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>0.0</v>
+        <v>94.94512499999999</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>96.78196852000019</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>8.63191232</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>18.53180342</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>37.725191</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>24.983629739999998</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>0.0</v>
+        <v>153.55266068666447</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>154.5333069</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>8.33182002</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>17.80143568</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>37.41610285</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
+        <v>22.54418649</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>0.0</v>
+        <v>100.40314139999998</v>
       </c>
       <c r="B12">
         <v>0.0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>7.744792390000001</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>18.72563778</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>40.9224073</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>22.1108352</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>0.0</v>
+        <v>225.56025846000034</v>
       </c>
       <c r="B13">
         <v>0.0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>6.4134005400000005</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>16.45330946</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>38.6390999</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>22.94692164</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>0.0</v>
+        <v>232.4113248</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>42.436097700000005</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>6.26471977</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>15.316429</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>35.83718955</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>22.30367823</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>0.0</v>
+        <v>219.67518990000002</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>147.9359169</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>6.87403887</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>14.50911684</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>37.37591165</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
+        <v>19.30383774</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>0.0</v>
+        <v>173.02605194000012</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>28.577528700000016</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>6.8155346</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>14.228234220000001</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>37.239501000000004</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>14.60943954</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>0.0</v>
+        <v>105.60796113000015</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>6.929213999999973</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>6.56027907</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>14.547254380000002</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>35.70647235</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
+        <v>16.35335907</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>0.0</v>
+        <v>94.56270135000022</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>171.50979</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>6.53150108</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>14.651810560000001</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>34.924716700000005</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>14.46999531</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>0.0</v>
+        <v>46.945448700000014</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>67.82327669999998</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>6.732784710000001</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>14.74061532</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>35.73558205</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>13.50420054</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>0.0</v>
+        <v>218.77690800000002</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>233.78831910000002</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>4.90773235</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>15.667267359999999</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>33.180337050000006</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>16.61063346</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>0.0</v>
+        <v>215.7220785</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>199.0616578800002</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>6.041896380000001</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>15.36003098</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>37.0656341</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>19.672697160000002</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>0.0</v>
+        <v>219.4463523</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>208.41705651000007</v>
       </c>
       <c r="C22">
-        <v>0.0</v>
+        <v>6.9315733999999996</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>14.6525304</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>40.8419432</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>20.392889189999998</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>0.0</v>
+        <v>176.22020482000016</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>234.0713106</v>
       </c>
       <c r="C23">
-        <v>0.0</v>
+        <v>8.16531333</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>15.49490008</v>
       </c>
       <c r="E23">
-        <v>0.0</v>
+        <v>37.9794668</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
+        <v>19.216964370000003</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>0.0</v>
+        <v>185.8181907</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>182.8995102</v>
       </c>
       <c r="C24">
-        <v>0.0</v>
+        <v>8.163636949999999</v>
       </c>
       <c r="D24">
-        <v>0.0</v>
+        <v>15.16486958</v>
       </c>
       <c r="E24">
-        <v>0.0</v>
+        <v>40.1120699</v>
       </c>
       <c r="F24">
-        <v>0.0</v>
+        <v>9.585294569999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>0.0</v>
+        <v>56.79330239999999</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>79.1874393</v>
       </c>
       <c r="C25">
-        <v>0.0</v>
+        <v>8.07860049</v>
       </c>
       <c r="D25">
-        <v>0.0</v>
+        <v>12.865589459999999</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>39.5116674</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>4.80658602</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>40.0</v>
+        <v>1140.0</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B5">
         <v>0.0</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B6">
         <v>0.0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B7">
         <v>0.0</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B8">
         <v>0.0</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B9">
         <v>0.0</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B11">
         <v>0.0</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.0</v>
+        <v>994.5751309300001</v>
       </c>
       <c r="B12">
         <v>0.0</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B13">
         <v>0.0</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.0</v>
+        <v>1213.4928659500001</v>
       </c>
       <c r="B14">
         <v>0.0</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.0</v>
+        <v>1104.6299431</v>
       </c>
       <c r="B15">
         <v>0.0</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B16">
         <v>0.0</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B17">
         <v>0.0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B18">
         <v>0.0</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.0</v>
+        <v>1061.15426198</v>
       </c>
       <c r="B19">
         <v>0.0</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.0</v>
+        <v>1130.3711876800003</v>
       </c>
       <c r="B20">
         <v>0.0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B21">
         <v>0.0</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B22">
         <v>0.0</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B23">
         <v>0.0</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.0</v>
+        <v>1255.9546881000003</v>
       </c>
       <c r="B24">
         <v>0.0</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B25">
         <v>0.0</v>
@@ -3909,10 +3909,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>946.520055</v>
+        <v>541.629675</v>
       </c>
       <c r="B2">
-        <v>438.63124500000004</v>
+        <v>310.771125</v>
       </c>
       <c r="C2">
         <v>390.68370000000004</v>
@@ -3923,26 +3923,26 @@
         <v>946.520055</v>
       </c>
       <c r="B3">
-        <v>438.63124500000004</v>
+        <v>262.82358</v>
       </c>
       <c r="C3">
-        <v>390.68370000000004</v>
+        <v>163.37682</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>946.520055</v>
+        <v>738.7473600000001</v>
       </c>
       <c r="B4">
-        <v>438.63124500000004</v>
+        <v>262.82358</v>
       </c>
       <c r="C4">
-        <v>390.68370000000004</v>
+        <v>269.92692</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>946.520055</v>
+        <v>625.09392</v>
       </c>
       <c r="B5">
         <v>438.63124500000004</v>
@@ -3953,32 +3953,32 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>946.520055</v>
+        <v>781.3674000000001</v>
       </c>
       <c r="B6">
-        <v>438.63124500000004</v>
+        <v>282.357765</v>
       </c>
       <c r="C6">
-        <v>390.68370000000004</v>
+        <v>284.1336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>946.520055</v>
+        <v>633.0237455500001</v>
       </c>
       <c r="B7">
-        <v>438.63124500000004</v>
+        <v>378.252855</v>
       </c>
       <c r="C7">
-        <v>390.68370000000004</v>
+        <v>269.92692</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>946.520055</v>
+        <v>725.49458529</v>
       </c>
       <c r="B8">
-        <v>438.63124500000004</v>
+        <v>218.42770499999997</v>
       </c>
       <c r="C8">
         <v>390.68370000000004</v>
@@ -3989,18 +3989,18 @@
         <v>946.520055</v>
       </c>
       <c r="B9">
-        <v>438.63124500000004</v>
+        <v>378.252855</v>
       </c>
       <c r="C9">
-        <v>390.68370000000004</v>
+        <v>284.1336</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>946.520055</v>
+        <v>832.8666149999999</v>
       </c>
       <c r="B10">
-        <v>438.63124500000004</v>
+        <v>158.04931499999998</v>
       </c>
       <c r="C10">
         <v>390.68370000000004</v>
@@ -4011,18 +4011,18 @@
         <v>946.520055</v>
       </c>
       <c r="B11">
-        <v>438.63124500000004</v>
+        <v>341.6625976266642</v>
       </c>
       <c r="C11">
-        <v>390.68370000000004</v>
+        <v>205.99686000000003</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>946.520055</v>
+        <v>463.492935</v>
       </c>
       <c r="B12">
-        <v>438.63124500000004</v>
+        <v>330.30531</v>
       </c>
       <c r="C12">
         <v>390.68370000000004</v>
@@ -4030,18 +4030,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>946.520055</v>
+        <v>749.40237</v>
       </c>
       <c r="B13">
-        <v>438.63124500000004</v>
+        <v>348.06366</v>
       </c>
       <c r="C13">
-        <v>390.68370000000004</v>
+        <v>312.54696</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>946.520055</v>
+        <v>738.7473600000001</v>
       </c>
       <c r="B14">
         <v>438.63124500000004</v>
@@ -4052,10 +4052,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>946.520055</v>
+        <v>781.3674000000001</v>
       </c>
       <c r="B15">
-        <v>438.63124500000004</v>
+        <v>378.252855</v>
       </c>
       <c r="C15">
         <v>390.68370000000004</v>
@@ -4063,21 +4063,21 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>946.520055</v>
+        <v>781.3674000000001</v>
       </c>
       <c r="B16">
-        <v>438.63124500000004</v>
+        <v>280.58193</v>
       </c>
       <c r="C16">
-        <v>390.68370000000004</v>
+        <v>312.54696</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>946.520055</v>
+        <v>676.5931350000001</v>
       </c>
       <c r="B17">
-        <v>438.63124500000004</v>
+        <v>218.42770499999997</v>
       </c>
       <c r="C17">
         <v>390.68370000000004</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>946.520055</v>
+        <v>719.2131750000001</v>
       </c>
       <c r="B18">
-        <v>438.63124500000004</v>
+        <v>326.75363999999996</v>
       </c>
       <c r="C18">
         <v>390.68370000000004</v>
@@ -4096,21 +4096,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>946.520055</v>
+        <v>598.4563949999999</v>
       </c>
       <c r="B19">
-        <v>438.63124500000004</v>
+        <v>378.252855</v>
       </c>
       <c r="C19">
-        <v>390.68370000000004</v>
+        <v>269.92692</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>946.520055</v>
+        <v>884.3658300000002</v>
       </c>
       <c r="B20">
-        <v>438.63124500000004</v>
+        <v>378.252855</v>
       </c>
       <c r="C20">
         <v>390.68370000000004</v>
@@ -4118,13 +4118,13 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>946.520055</v>
+        <v>884.3658300000002</v>
       </c>
       <c r="B21">
         <v>438.63124500000004</v>
       </c>
       <c r="C21">
-        <v>390.68370000000004</v>
+        <v>269.92692</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4132,10 +4132,10 @@
         <v>946.520055</v>
       </c>
       <c r="B22">
-        <v>438.63124500000004</v>
+        <v>394.23537000000005</v>
       </c>
       <c r="C22">
-        <v>390.68370000000004</v>
+        <v>269.92692</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4146,7 +4146,7 @@
         <v>438.63124500000004</v>
       </c>
       <c r="C23">
-        <v>390.68370000000004</v>
+        <v>205.99686000000003</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4157,18 +4157,18 @@
         <v>438.63124500000004</v>
       </c>
       <c r="C24">
-        <v>390.68370000000004</v>
+        <v>312.54696</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>946.520055</v>
+        <v>699.2351200699998</v>
       </c>
       <c r="B25">
         <v>438.63124500000004</v>
       </c>
       <c r="C25">
-        <v>390.68370000000004</v>
+        <v>163.37682</v>
       </c>
     </row>
   </sheetData>
@@ -4197,10 +4197,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.0</v>
+        <v>48.81371026</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>54.270789740000225</v>
       </c>
       <c r="C2">
         <v>0.0</v>
@@ -4208,10 +4208,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.0</v>
+        <v>59.04889109999999</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>213.6715639000001</v>
       </c>
       <c r="C3">
         <v>0.0</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.0</v>
+        <v>72.76598429</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>98.73187570999997</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.0</v>
+        <v>80.22203255</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>274.18683245000017</v>
       </c>
       <c r="C5">
         <v>0.0</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.0</v>
+        <v>84.80854979</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>163.05021521000003</v>
       </c>
       <c r="C6">
         <v>0.0</v>
@@ -4252,10 +4252,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.0</v>
+        <v>83.47628135</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>97.72723919999999</v>
       </c>
       <c r="C7">
         <v>0.0</v>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0</v>
+        <v>84.32654209</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
+        <v>150.27944820000002</v>
       </c>
       <c r="C8">
         <v>0.0</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.0</v>
+        <v>89.15188094</v>
       </c>
       <c r="B9">
-        <v>0.0</v>
+        <v>419.7546290600003</v>
       </c>
       <c r="C9">
         <v>0.0</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.0</v>
+        <v>89.87253648000001</v>
       </c>
       <c r="B10">
-        <v>0.0</v>
+        <v>191.72709352000018</v>
       </c>
       <c r="C10">
         <v>0.0</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.0</v>
+        <v>86.09354504000001</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>308.0859675866645</v>
       </c>
       <c r="C11">
         <v>0.0</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.0</v>
+        <v>89.50367267</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>100.40314139999998</v>
       </c>
       <c r="C12">
         <v>0.0</v>
@@ -4318,10 +4318,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.0</v>
+        <v>84.45273154</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>225.56025846000034</v>
       </c>
       <c r="C13">
         <v>0.0</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.0</v>
+        <v>79.72201654999999</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
+        <v>274.8474225</v>
       </c>
       <c r="C14">
         <v>0.0</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.0</v>
+        <v>78.0629051</v>
       </c>
       <c r="B15">
-        <v>0.0</v>
+        <v>367.6111068</v>
       </c>
       <c r="C15">
         <v>0.0</v>
@@ -4351,10 +4351,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.0</v>
+        <v>72.89270936</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>201.60358064000013</v>
       </c>
       <c r="C16">
         <v>0.0</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.0</v>
+        <v>73.16736487</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>112.53717513000012</v>
       </c>
       <c r="C17">
         <v>0.0</v>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.0</v>
+        <v>70.57802365</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>266.07249135000023</v>
       </c>
       <c r="C18">
         <v>0.0</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.0</v>
+        <v>70.71318262</v>
       </c>
       <c r="B19">
-        <v>0.0</v>
+        <v>114.7687254</v>
       </c>
       <c r="C19">
         <v>0.0</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.0</v>
+        <v>70.36597022000001</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>452.5652271</v>
       </c>
       <c r="C20">
         <v>0.0</v>
@@ -4406,10 +4406,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.0</v>
+        <v>78.14025862</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>414.7837363800002</v>
       </c>
       <c r="C21">
         <v>0.0</v>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.0</v>
+        <v>82.81893619</v>
       </c>
       <c r="B22">
-        <v>0.0</v>
+        <v>427.86340881000007</v>
       </c>
       <c r="C22">
         <v>0.0</v>
@@ -4428,10 +4428,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.0</v>
+        <v>80.85664458</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
+        <v>410.29151542000017</v>
       </c>
       <c r="C23">
         <v>0.0</v>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.0</v>
+        <v>73.025871</v>
       </c>
       <c r="B24">
-        <v>0.0</v>
+        <v>368.7177009</v>
       </c>
       <c r="C24">
         <v>0.0</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.0</v>
+        <v>65.26244337</v>
       </c>
       <c r="B25">
-        <v>0.0</v>
+        <v>135.98074169999998</v>
       </c>
       <c r="C25">
         <v>0.0</v>
